--- a/bots/crawl_ch/output/vegi_coop_2022-12-23.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-23.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11285,7 +11285,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12365,7 +12365,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12434,7 +12434,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12765,7 +12765,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13029,7 +13029,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13167,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13236,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13447,7 +13447,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13516,7 +13516,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14011,7 +14011,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14212,7 +14212,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14484,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14764,7 +14764,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15018,7 +15018,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15225,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15363,7 +15363,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15428,7 +15428,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15708,7 +15708,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15777,7 +15777,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -15988,7 +15988,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16053,7 +16053,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16122,7 +16122,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16260,7 +16260,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16329,7 +16329,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16394,7 +16394,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16463,7 +16463,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16536,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16605,7 +16605,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16678,7 +16678,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16747,7 +16747,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16816,7 +16816,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16885,7 +16885,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -16950,7 +16950,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17019,7 +17019,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17234,7 +17234,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17307,7 +17307,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17632,7 +17632,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17847,7 +17847,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17916,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18054,7 +18054,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18123,7 +18123,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18192,7 +18192,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18338,7 +18338,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18553,7 +18553,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18618,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18687,7 +18687,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18756,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18825,7 +18825,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19178,7 +19178,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19320,7 +19320,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19389,7 +19389,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19458,7 +19458,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19527,7 +19527,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19742,7 +19742,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19811,7 +19811,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19880,7 +19880,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -19945,7 +19945,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20087,7 +20087,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20292,7 +20292,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20357,7 +20357,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20499,7 +20499,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20572,7 +20572,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20854,7 +20854,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -20992,7 +20992,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21061,7 +21061,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21134,7 +21134,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21199,7 +21199,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21264,7 +21264,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21406,7 +21406,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21471,7 +21471,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21889,7 +21889,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22031,7 +22031,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22100,7 +22100,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22309,7 +22309,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22378,7 +22378,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22451,7 +22451,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22666,7 +22666,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22739,7 +22739,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22808,7 +22808,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22877,7 +22877,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23013,7 +23013,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23082,7 +23082,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23147,7 +23147,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23210,13 +23210,13 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>Betty Bossi Mungbohnen Sprossen 2.30 Schweizer Franken</t>
+          <t>Betty Bossi Mungbohnen Sprossen - Online kein Bestand 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23289,7 +23289,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23362,7 +23362,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23435,7 +23435,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23508,7 +23508,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23654,7 +23654,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23723,7 +23723,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -23938,7 +23938,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24076,7 +24076,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24139,7 +24139,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24212,7 +24212,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24281,7 +24281,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24346,7 +24346,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24419,7 +24419,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24492,7 +24492,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24545,7 +24545,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24618,7 +24618,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24691,7 +24691,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24760,7 +24760,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24823,7 +24823,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24892,7 +24892,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -24957,7 +24957,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25020,7 +25020,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25162,7 +25162,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25308,7 +25308,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25377,7 +25377,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25450,7 +25450,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25515,7 +25515,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25588,7 +25588,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25653,7 +25653,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25726,7 +25726,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25799,7 +25799,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25862,7 +25862,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26079,7 +26079,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26152,7 +26152,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26298,7 +26298,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26371,7 +26371,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26444,7 +26444,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26509,7 +26509,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26574,7 +26574,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27055,7 +27055,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27124,7 +27124,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27193,7 +27193,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27339,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27412,7 +27412,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27477,7 +27477,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27542,7 +27542,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27684,7 +27684,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -27972,7 +27972,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28187,7 +28187,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28260,7 +28260,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28329,7 +28329,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28398,7 +28398,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28467,7 +28467,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28532,7 +28532,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28605,7 +28605,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28654,7 +28654,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28727,7 +28727,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28800,7 +28800,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28873,7 +28873,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -28946,7 +28946,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29019,7 +29019,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29090,7 +29090,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29163,7 +29163,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29236,7 +29236,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29309,7 +29309,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29382,7 +29382,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29451,7 +29451,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29518,7 +29518,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29583,7 +29583,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29656,7 +29656,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29729,7 +29729,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29796,7 +29796,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29869,7 +29869,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29934,7 +29934,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -29987,7 +29987,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30054,7 +30054,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30196,7 +30196,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30269,7 +30269,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30407,7 +30407,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30547,7 +30547,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30616,7 +30616,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30762,7 +30762,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30904,7 +30904,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -30977,7 +30977,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31050,7 +31050,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31119,7 +31119,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31192,7 +31192,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31261,7 +31261,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31326,7 +31326,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31468,7 +31468,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31521,7 +31521,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31588,7 +31588,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31730,7 +31730,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31799,7 +31799,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31870,7 +31870,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -31939,7 +31939,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32085,7 +32085,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32158,7 +32158,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32300,7 +32300,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32367,7 +32367,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32432,7 +32432,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32505,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32578,7 +32578,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32651,7 +32651,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32720,7 +32720,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32793,7 +32793,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32866,7 +32866,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32929,7 +32929,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -32998,7 +32998,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33071,7 +33071,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33144,7 +33144,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33207,7 +33207,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33272,7 +33272,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33345,7 +33345,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33418,7 +33418,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33487,7 +33487,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33552,7 +33552,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33621,7 +33621,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33686,7 +33686,7 @@
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33759,7 +33759,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33832,7 +33832,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33897,7 +33897,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34041,7 +34041,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34110,7 +34110,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34183,7 +34183,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34256,7 +34256,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34329,7 +34329,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34386,7 +34386,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34455,7 +34455,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34528,7 +34528,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34597,7 +34597,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34670,7 +34670,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34735,7 +34735,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34802,7 +34802,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34871,7 +34871,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -34944,7 +34944,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35017,7 +35017,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35086,7 +35086,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35151,7 +35151,7 @@
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35220,7 +35220,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35293,7 +35293,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35366,7 +35366,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35417,7 +35417,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35486,7 +35486,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35551,7 +35551,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35624,7 +35624,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35695,7 +35695,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35760,7 +35760,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35833,7 +35833,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35904,7 +35904,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -35977,7 +35977,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36050,7 +36050,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36097,7 +36097,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36162,7 +36162,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36231,7 +36231,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36302,7 +36302,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36375,7 +36375,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36448,7 +36448,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36521,7 +36521,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36590,7 +36590,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36736,7 +36736,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36805,7 +36805,7 @@
       <c r="N528" t="inlineStr"/>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36878,7 +36878,7 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -36951,7 +36951,7 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37020,7 +37020,7 @@
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37087,7 +37087,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37156,7 +37156,7 @@
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37219,7 +37219,7 @@
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37282,7 +37282,7 @@
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37355,7 +37355,7 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37422,7 +37422,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37495,7 +37495,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37564,7 +37564,7 @@
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37637,7 +37637,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37700,7 +37700,7 @@
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37771,7 +37771,7 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37836,7 +37836,7 @@
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37899,7 +37899,7 @@
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -37970,7 +37970,7 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -38037,7 +38037,7 @@
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -38102,7 +38102,7 @@
       <c r="N547" t="inlineStr"/>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -38173,7 +38173,7 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>
@@ -38244,7 +38244,7 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>2022-12-23 06:52:13</t>
+          <t>2022-12-23 12:58:44</t>
         </is>
       </c>
     </row>

--- a/bots/crawl_ch/output/vegi_coop_2022-12-23.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2022-12-23.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -4992,7 +4992,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5593,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5658,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6635,7 +6635,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6704,7 +6704,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6907,7 +6907,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7045,7 +7045,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9091,7 +9091,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9298,7 +9298,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9505,7 +9505,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9574,7 +9574,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9785,7 +9785,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9854,7 +9854,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10057,7 +10057,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10195,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -10942,7 +10942,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11011,7 +11011,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11149,7 +11149,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11285,7 +11285,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11484,7 +11484,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11837,7 +11837,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12109,7 +12109,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12365,7 +12365,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12434,7 +12434,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12560,7 +12560,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12765,7 +12765,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13029,7 +13029,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13167,7 +13167,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13236,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13447,7 +13447,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13516,7 +13516,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14011,7 +14011,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14147,7 +14147,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14212,7 +14212,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14285,7 +14285,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14484,7 +14484,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14622,7 +14622,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14764,7 +14764,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14837,7 +14837,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15018,7 +15018,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15225,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15363,7 +15363,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15428,7 +15428,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15497,7 +15497,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15566,7 +15566,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15708,7 +15708,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15777,7 +15777,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15846,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -15988,7 +15988,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16053,7 +16053,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16122,7 +16122,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16195,7 +16195,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16260,7 +16260,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16329,7 +16329,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16394,7 +16394,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16463,7 +16463,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16536,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16605,7 +16605,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16678,7 +16678,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16747,7 +16747,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16816,7 +16816,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16885,7 +16885,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -16950,7 +16950,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17019,7 +17019,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17234,7 +17234,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17307,7 +17307,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17380,7 +17380,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17443,7 +17443,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17632,7 +17632,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17847,7 +17847,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17916,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18054,7 +18054,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18123,7 +18123,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18192,7 +18192,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18338,7 +18338,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18411,7 +18411,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18484,7 +18484,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18553,7 +18553,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18618,7 +18618,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18687,7 +18687,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18756,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18825,7 +18825,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18890,7 +18890,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19178,7 +19178,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19320,7 +19320,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19389,7 +19389,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19458,7 +19458,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19527,7 +19527,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19600,7 +19600,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19742,7 +19742,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19811,7 +19811,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19880,7 +19880,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -19945,7 +19945,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20087,7 +20087,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20160,7 +20160,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20227,7 +20227,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20292,7 +20292,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20357,7 +20357,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20430,7 +20430,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20499,7 +20499,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20572,7 +20572,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20645,7 +20645,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20708,7 +20708,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20854,7 +20854,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20923,7 +20923,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -20992,7 +20992,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21061,7 +21061,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21134,7 +21134,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21199,7 +21199,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21264,7 +21264,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21333,7 +21333,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21406,7 +21406,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21471,7 +21471,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21536,7 +21536,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21889,7 +21889,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22031,7 +22031,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22100,7 +22100,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22244,7 +22244,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22309,7 +22309,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22378,7 +22378,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22451,7 +22451,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22524,7 +22524,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22597,7 +22597,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22666,7 +22666,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22739,7 +22739,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22808,7 +22808,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22877,7 +22877,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -22950,7 +22950,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23013,7 +23013,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23082,7 +23082,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23147,7 +23147,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23216,7 +23216,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23289,7 +23289,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23362,7 +23362,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23435,7 +23435,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23508,7 +23508,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23654,7 +23654,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23723,7 +23723,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -23938,7 +23938,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24076,7 +24076,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24139,7 +24139,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24212,7 +24212,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24281,7 +24281,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24346,7 +24346,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24419,7 +24419,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24492,7 +24492,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24545,7 +24545,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24618,7 +24618,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24691,7 +24691,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24760,7 +24760,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24823,7 +24823,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24892,7 +24892,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -24957,7 +24957,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25020,7 +25020,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25162,7 +25162,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25235,7 +25235,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25308,7 +25308,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25377,7 +25377,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25450,7 +25450,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25515,7 +25515,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25588,7 +25588,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25653,7 +25653,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25726,7 +25726,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25799,7 +25799,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25862,7 +25862,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -25935,7 +25935,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26079,7 +26079,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26152,7 +26152,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26298,7 +26298,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26371,7 +26371,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26444,7 +26444,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26509,7 +26509,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26574,7 +26574,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26909,7 +26909,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -26982,7 +26982,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27055,7 +27055,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27124,7 +27124,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27193,7 +27193,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27339,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27412,7 +27412,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27477,7 +27477,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27542,7 +27542,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27611,7 +27611,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27684,7 +27684,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27757,7 +27757,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27830,7 +27830,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -27972,7 +27972,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28041,7 +28041,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28114,7 +28114,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28187,7 +28187,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28260,7 +28260,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28329,7 +28329,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28398,7 +28398,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28467,7 +28467,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28532,7 +28532,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28605,7 +28605,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28654,7 +28654,7 @@
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28727,7 +28727,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28800,7 +28800,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28873,7 +28873,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -28946,7 +28946,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29019,7 +29019,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29090,7 +29090,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29163,7 +29163,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29236,7 +29236,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29309,7 +29309,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29382,7 +29382,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29451,7 +29451,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29518,7 +29518,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29583,7 +29583,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29656,7 +29656,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29729,7 +29729,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29796,7 +29796,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29869,7 +29869,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29934,7 +29934,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -29987,7 +29987,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30054,7 +30054,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30127,7 +30127,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30196,7 +30196,7 @@
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30269,7 +30269,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30338,7 +30338,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30407,7 +30407,7 @@
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30547,7 +30547,7 @@
       <c r="N438" t="inlineStr"/>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30616,7 +30616,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30762,7 +30762,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30904,7 +30904,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -30977,7 +30977,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31050,7 +31050,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31119,7 +31119,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31192,7 +31192,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31261,7 +31261,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31326,7 +31326,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31395,7 +31395,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31468,7 +31468,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31521,7 +31521,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31588,7 +31588,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31661,7 +31661,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31730,7 +31730,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31799,7 +31799,7 @@
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31870,7 +31870,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -31939,7 +31939,7 @@
       <c r="N458" t="inlineStr"/>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32012,7 +32012,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32085,7 +32085,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32158,7 +32158,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32300,7 +32300,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32367,7 +32367,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32432,7 +32432,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32505,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32578,7 +32578,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32651,7 +32651,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32720,7 +32720,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32793,7 +32793,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32866,7 +32866,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32929,7 +32929,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -32998,7 +32998,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33071,7 +33071,7 @@
       </c>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33144,7 +33144,7 @@
       </c>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33207,7 +33207,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33272,7 +33272,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33345,7 +33345,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33418,7 +33418,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33487,7 +33487,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33552,7 +33552,7 @@
       <c r="N481" t="inlineStr"/>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33621,7 +33621,7 @@
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33686,7 +33686,7 @@
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33759,7 +33759,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33832,7 +33832,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33897,7 +33897,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -33968,7 +33968,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34041,7 +34041,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34110,7 +34110,7 @@
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34183,7 +34183,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34256,7 +34256,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34329,7 +34329,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34386,7 +34386,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34455,7 +34455,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34528,7 +34528,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34597,7 +34597,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34670,7 +34670,7 @@
       </c>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34735,7 +34735,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34802,7 +34802,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34871,7 +34871,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -34944,7 +34944,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35017,7 +35017,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35086,7 +35086,7 @@
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35151,7 +35151,7 @@
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35220,7 +35220,7 @@
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35293,7 +35293,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35366,7 +35366,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35417,7 +35417,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35486,7 +35486,7 @@
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35551,7 +35551,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35624,7 +35624,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35695,7 +35695,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35760,7 +35760,7 @@
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35833,7 +35833,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35904,7 +35904,7 @@
       </c>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -35977,7 +35977,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36050,7 +36050,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36097,7 +36097,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36162,7 +36162,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36231,7 +36231,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36302,7 +36302,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36375,7 +36375,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36448,7 +36448,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36521,7 +36521,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36590,7 +36590,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36663,7 +36663,7 @@
       </c>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36736,7 +36736,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36805,7 +36805,7 @@
       <c r="N528" t="inlineStr"/>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36878,7 +36878,7 @@
       </c>
       <c r="O529" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -36951,7 +36951,7 @@
       </c>
       <c r="O530" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37020,7 +37020,7 @@
       <c r="N531" t="inlineStr"/>
       <c r="O531" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37087,7 +37087,7 @@
       <c r="N532" t="inlineStr"/>
       <c r="O532" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37156,7 +37156,7 @@
       <c r="N533" t="inlineStr"/>
       <c r="O533" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37219,7 +37219,7 @@
       <c r="N534" t="inlineStr"/>
       <c r="O534" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37282,7 +37282,7 @@
       <c r="N535" t="inlineStr"/>
       <c r="O535" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37355,7 +37355,7 @@
       </c>
       <c r="O536" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37422,7 +37422,7 @@
       <c r="N537" t="inlineStr"/>
       <c r="O537" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37495,7 +37495,7 @@
       </c>
       <c r="O538" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37564,7 +37564,7 @@
       <c r="N539" t="inlineStr"/>
       <c r="O539" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37637,7 +37637,7 @@
       </c>
       <c r="O540" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37700,7 +37700,7 @@
       <c r="N541" t="inlineStr"/>
       <c r="O541" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37771,7 +37771,7 @@
       </c>
       <c r="O542" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37836,7 +37836,7 @@
       <c r="N543" t="inlineStr"/>
       <c r="O543" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37899,7 +37899,7 @@
       <c r="N544" t="inlineStr"/>
       <c r="O544" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -37970,7 +37970,7 @@
       </c>
       <c r="O545" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -38037,7 +38037,7 @@
       <c r="N546" t="inlineStr"/>
       <c r="O546" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -38102,7 +38102,7 @@
       <c r="N547" t="inlineStr"/>
       <c r="O547" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -38173,7 +38173,7 @@
       </c>
       <c r="O548" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
@@ -38244,7 +38244,7 @@
       </c>
       <c r="O549" t="inlineStr">
         <is>
-          <t>2022-12-23 12:58:44</t>
+          <t>2022-12-23 20:54:59</t>
         </is>
       </c>
     </row>
